--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE9B6D0-EE1E-4B3E-BEE4-B31EB2B85C89}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,13 +90,17 @@
   </si>
   <si>
     <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,18 +505,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.75" style="1" customWidth="1"/>
@@ -521,7 +526,12 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
@@ -544,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
@@ -565,7 +575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -586,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3">
         <v>1001</v>
       </c>
